--- a/eq_log/80000571.xlsx
+++ b/eq_log/80000571.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="570" windowWidth="28440" windowHeight="9915"/>
+    <workbookView xWindow="240" yWindow="525" windowWidth="28455" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="35">
   <si>
     <t>тип обладнання</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>причина дефекту/невідповідності</t>
-  </si>
-  <si>
-    <t>кількість ударів при заміні аплікатора</t>
   </si>
   <si>
     <t>різниця циклів між замінами</t>
@@ -112,7 +109,16 @@
     <t>30</t>
   </si>
   <si>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>**</t>
+  </si>
+  <si>
+    <t>кількість циклів при заміні запчастин</t>
   </si>
 </sst>
 </file>
@@ -609,7 +615,7 @@
   <dimension ref="A1:H7000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -650,16 +656,16 @@
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>8</v>
       </c>
       <c r="H2" s="14">
         <v>320000</v>
@@ -679,13 +685,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -701,13 +707,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -723,13 +729,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -745,13 +751,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -767,13 +773,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -789,16 +795,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
       </c>
       <c r="E9" s="15">
         <f t="shared" si="0"/>
@@ -811,16 +817,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="15">
         <f t="shared" si="0"/>
@@ -833,16 +839,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="15">
         <f t="shared" si="0"/>
@@ -855,16 +861,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="15">
         <f t="shared" si="0"/>
@@ -877,16 +883,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="15">
         <f t="shared" si="0"/>
@@ -899,16 +905,16 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="15">
         <f t="shared" si="0"/>
@@ -921,16 +927,16 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="15">
         <f t="shared" si="0"/>
@@ -943,13 +949,13 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>22</v>
@@ -965,13 +971,13 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>23</v>
@@ -987,13 +993,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18">
         <v>24</v>
@@ -1009,13 +1015,13 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19">
         <v>25</v>
@@ -1031,16 +1037,16 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
       </c>
       <c r="E20" s="15">
         <f t="shared" si="0"/>
@@ -1053,16 +1059,16 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="15">
         <f t="shared" si="0"/>
@@ -1075,16 +1081,16 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="15">
         <f t="shared" si="0"/>
@@ -1097,16 +1103,16 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" s="15">
         <f t="shared" si="0"/>
@@ -1119,16 +1125,16 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="15">
         <f t="shared" si="0"/>
@@ -1141,25 +1147,37 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
         <v>32</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>1</v>
       </c>
       <c r="F25" s="17">
         <f t="shared" si="1"/>
-        <v>320030</v>
+        <v>319999</v>
       </c>
     </row>
     <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
       <c r="E26" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-31</v>
       </c>
       <c r="F26" s="17">
         <f t="shared" si="1"/>
-        <v>320000</v>
+        <v>320031</v>
       </c>
     </row>
     <row r="27" spans="1:8">
